--- a/Exercise_4.xlsx
+++ b/Exercise_4.xlsx
@@ -308,13 +308,13 @@
     <t>fu_xuan</t>
   </si>
   <si>
-    <t>It shows that the characters in the data are mostly 4 rarity and some are 5 rarity</t>
-  </si>
-  <si>
-    <t>It shows that the leading path of the characters of the data are nihility and destruction followed by erudition, and then the rest are preservation, hunt, harmony, and abundance</t>
-  </si>
-  <si>
-    <t>The chart shows thatthe combat type of the characters are mostly lightning, followed by the second are ice, quantum and physical, and at the last are wind, fire, imaginary</t>
+    <t>It shows that the characters in the data are 16 characters of 4 rarity and 17 characters are 5 rarity</t>
+  </si>
+  <si>
+    <t>It shows that the leading path of the characters of the data are 6 nihility and destruction followed by 5 erudition, and then the rest 4 are preservation, hunt, harmony, and abundance</t>
+  </si>
+  <si>
+    <t>The chart shows that the combat type of the characters which are 6 lightning, followed by the 5 which are ice, quantum and physical, and at the last which are 4 wind, fire, imaginary</t>
   </si>
 </sst>
 </file>
@@ -423,11 +423,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="953354355"/>
-        <c:axId val="423165137"/>
+        <c:axId val="1567143860"/>
+        <c:axId val="1307732075"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="953354355"/>
+        <c:axId val="1567143860"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -479,10 +479,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423165137"/>
+        <c:crossAx val="1307732075"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="423165137"/>
+        <c:axId val="1307732075"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -557,7 +557,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="953354355"/>
+        <c:crossAx val="1567143860"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
